--- a/Data/t14.2.xlsx
+++ b/Data/t14.2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1182,7 +1182,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1192,17 +1192,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>1.298971211342262</v>
+        <v>1.196880291355837</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>22.72422530010087</v>
+        <v>8.104449990455377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D44">
-        <v>25.59462108536508</v>
+        <v>17.81576943259409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>27.19744592017016</v>
+        <v>29.96061223539417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D46">
-        <v>15.35834737576548</v>
+        <v>26.22387187633627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D47">
-        <v>3.786770338265789</v>
+        <v>7.603351182327022</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D48">
-        <v>2.388881455252652</v>
+        <v>5.182587879231843</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>1.650737313736831</v>
+        <v>3.912477112304417</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D50">
-        <v>1.439737889914932</v>
+        <v>1.298971211342262</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D51">
-        <v>22.08286381369109</v>
+        <v>22.72422530010087</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D52">
-        <v>24.32548571452301</v>
+        <v>25.59462108536508</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D53">
-        <v>27.09330045095999</v>
+        <v>27.19744592017016</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D54">
-        <v>16.76877306523436</v>
+        <v>15.35834737576548</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D55">
-        <v>3.994713583737179</v>
+        <v>3.786770338265789</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D56">
-        <v>2.349543135764508</v>
+        <v>2.388881455252652</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D57">
-        <v>1.945582346174246</v>
+        <v>1.650737313736831</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D58">
-        <v>1.994134953616264</v>
+        <v>1.439737889914932</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D59">
-        <v>16.52548152515862</v>
+        <v>22.08286381369109</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D60">
-        <v>26.36121809786308</v>
+        <v>24.32548571452301</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D61">
-        <v>30.97087707651718</v>
+        <v>27.09330045095999</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D62">
-        <v>16.76398218505089</v>
+        <v>16.76877306523436</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D63">
-        <v>3.493081374453226</v>
+        <v>3.994713583737179</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D64">
-        <v>2.28444093056492</v>
+        <v>2.349543135764508</v>
       </c>
     </row>
     <row r="65">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D65">
-        <v>1.606783856773464</v>
+        <v>1.945582346174246</v>
       </c>
     </row>
     <row r="66">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D66">
-        <v>2.247816485732686</v>
+        <v>1.994134953616264</v>
       </c>
     </row>
     <row r="67">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D67">
-        <v>24.98521708035305</v>
+        <v>16.52548152515862</v>
       </c>
     </row>
     <row r="68">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D68">
-        <v>26.97090313031018</v>
+        <v>26.36121809786308</v>
       </c>
     </row>
     <row r="69">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D69">
-        <v>27.13830684810548</v>
+        <v>30.97087707651718</v>
       </c>
     </row>
     <row r="70">
@@ -1752,11 +1752,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D70">
-        <v>12.15830728509847</v>
+        <v>16.76398218505089</v>
       </c>
     </row>
     <row r="71">
@@ -1772,11 +1772,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D71">
-        <v>2.863961171525832</v>
+        <v>3.493081374453226</v>
       </c>
     </row>
     <row r="72">
@@ -1792,11 +1792,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D72">
-        <v>2.157819582696927</v>
+        <v>2.28444093056492</v>
       </c>
     </row>
     <row r="73">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D73">
-        <v>1.477668416177084</v>
+        <v>1.606783856773464</v>
       </c>
     </row>
     <row r="74">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D74">
-        <v>1.611996246643657</v>
+        <v>2.247816485732686</v>
       </c>
     </row>
     <row r="75">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D75">
-        <v>19.01403561810088</v>
+        <v>24.98521708035305</v>
       </c>
     </row>
     <row r="76">
@@ -1872,11 +1872,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D76">
-        <v>27.84930344047064</v>
+        <v>26.97090313031018</v>
       </c>
     </row>
     <row r="77">
@@ -1892,11 +1892,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D77">
-        <v>30.54351465568974</v>
+        <v>27.13830684810548</v>
       </c>
     </row>
     <row r="78">
@@ -1912,11 +1912,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D78">
-        <v>14.30104331041976</v>
+        <v>12.15830728509847</v>
       </c>
     </row>
     <row r="79">
@@ -1932,11 +1932,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D79">
-        <v>3.224128981443082</v>
+        <v>2.863961171525832</v>
       </c>
     </row>
     <row r="80">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D80">
-        <v>2.050638009759177</v>
+        <v>2.157819582696927</v>
       </c>
     </row>
     <row r="81">
@@ -1972,17 +1972,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D81">
-        <v>1.405339737472305</v>
+        <v>1.477668416177084</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1992,17 +1992,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D82">
-        <v>1.773077319635396</v>
+        <v>1.611996246643657</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D83">
-        <v>22.78931549560285</v>
+        <v>19.01403561810088</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2032,17 +2032,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D84">
-        <v>25.29446633599568</v>
+        <v>27.84930344047064</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2052,17 +2052,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D85">
-        <v>25.45128672602024</v>
+        <v>30.54351465568974</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2072,17 +2072,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D86">
-        <v>15.07318045071649</v>
+        <v>14.30104331041976</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D87">
-        <v>4.293200159837071</v>
+        <v>3.224128981443082</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D88">
-        <v>2.875430056864464</v>
+        <v>2.050638009759177</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2132,17 +2132,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D89">
-        <v>2.450043455327732</v>
+        <v>1.405339737472305</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2152,17 +2152,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D90">
-        <v>1.094771173937924</v>
+        <v>1.671786648641961</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2172,17 +2172,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>23.4372051209421</v>
+        <v>16.87588399517639</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2192,17 +2192,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D92">
-        <v>25.21634777763757</v>
+        <v>27.74199729857821</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D93">
-        <v>27.03779632257051</v>
+        <v>31.32273286012914</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>13.85911336366065</v>
+        <v>15.21908989202079</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D95">
-        <v>3.25877262328784</v>
+        <v>3.16911171287702</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2272,17 +2272,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D96">
-        <v>3.355316352154815</v>
+        <v>2.420620836379137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2292,11 +2292,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D97">
-        <v>2.740677265808867</v>
+        <v>1.578776756198864</v>
       </c>
     </row>
     <row r="98">
@@ -2312,11 +2312,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D98">
-        <v>0.7971044777217917</v>
+        <v>1.773077319635396</v>
       </c>
     </row>
     <row r="99">
@@ -2332,11 +2332,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D99">
-        <v>14.20668009102147</v>
+        <v>22.78931549560285</v>
       </c>
     </row>
     <row r="100">
@@ -2352,11 +2352,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D100">
-        <v>26.16332618239217</v>
+        <v>25.29446633599568</v>
       </c>
     </row>
     <row r="101">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D101">
-        <v>33.18189162045468</v>
+        <v>25.45128672602024</v>
       </c>
     </row>
     <row r="102">
@@ -2392,11 +2392,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D102">
-        <v>16.21427528615401</v>
+        <v>15.07318045071649</v>
       </c>
     </row>
     <row r="103">
@@ -2412,11 +2412,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D103">
-        <v>3.99248370836344</v>
+        <v>4.293200159837071</v>
       </c>
     </row>
     <row r="104">
@@ -2432,11 +2432,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D104">
-        <v>3.415627218560223</v>
+        <v>2.875430056864464</v>
       </c>
     </row>
     <row r="105">
@@ -2452,11 +2452,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D105">
-        <v>2.028611415332532</v>
+        <v>2.450043455327732</v>
       </c>
     </row>
     <row r="106">
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D106">
-        <v>1.141312910416615</v>
+        <v>1.094771173937924</v>
       </c>
     </row>
     <row r="107">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D107">
-        <v>24.06597176000983</v>
+        <v>23.4372051209421</v>
       </c>
     </row>
     <row r="108">
@@ -2512,11 +2512,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D108">
-        <v>27.60094023160802</v>
+        <v>25.21634777763757</v>
       </c>
     </row>
     <row r="109">
@@ -2532,11 +2532,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D109">
-        <v>27.86234255497044</v>
+        <v>27.03779632257051</v>
       </c>
     </row>
     <row r="110">
@@ -2552,11 +2552,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D110">
-        <v>11.8292458653502</v>
+        <v>13.85911336366065</v>
       </c>
     </row>
     <row r="111">
@@ -2572,11 +2572,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D111">
-        <v>2.919625070498163</v>
+        <v>3.25877262328784</v>
       </c>
     </row>
     <row r="112">
@@ -2592,11 +2592,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D112">
-        <v>2.461295051474687</v>
+        <v>3.355316352154815</v>
       </c>
     </row>
     <row r="113">
@@ -2612,11 +2612,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D113">
-        <v>2.119266555672136</v>
+        <v>2.740677265808867</v>
       </c>
     </row>
     <row r="114">
@@ -2632,11 +2632,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D114">
-        <v>0.8868159799637053</v>
+        <v>0.7971044777217917</v>
       </c>
     </row>
     <row r="115">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D115">
-        <v>17.73228156217778</v>
+        <v>14.20668009102147</v>
       </c>
     </row>
     <row r="116">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D116">
-        <v>26.06679206443979</v>
+        <v>26.16332618239217</v>
       </c>
     </row>
     <row r="117">
@@ -2692,11 +2692,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D117">
-        <v>30.75043147487787</v>
+        <v>33.18189162045468</v>
       </c>
     </row>
     <row r="118">
@@ -2712,11 +2712,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D118">
-        <v>15.51085985713675</v>
+        <v>16.21427528615401</v>
       </c>
     </row>
     <row r="119">
@@ -2732,11 +2732,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D119">
-        <v>4.251753677579408</v>
+        <v>3.99248370836344</v>
       </c>
     </row>
     <row r="120">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D120">
-        <v>2.855060877123105</v>
+        <v>3.415627218560223</v>
       </c>
     </row>
     <row r="121">
@@ -2772,11 +2772,491 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>2.028611415332532</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Sem rendimento</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>1.141312910416615</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mais de zero até ¼</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>24.06597176000983</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mais de ¼ até ½</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>27.60094023160802</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mais de ½ até 1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>27.86234255497044</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Mais de 1 a 2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>11.8292458653502</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Mais de 2 a 3</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>2.919625070498163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Mais de 3 a 5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>2.461295051474687</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Mais de 5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>2.119266555672136</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sem rendimento</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D121">
+      <c r="D130">
+        <v>0.8868159799637053</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mais de zero até ¼</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>17.73228156217778</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mais de ¼ até ½</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>26.06679206443979</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mais de ½ até 1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>30.75043147487787</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mais de 1 a 2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>15.51085985713675</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mais de 2 a 3</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>4.251753677579408</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mais de 3 a 5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>2.855060877123105</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Mais de 5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D137">
         <v>1.946004506701788</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sem rendimento</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>1.659744556225417</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mais de zero até ¼</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>15.53247110071736</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mais de ¼ até ½</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>26.88099019029936</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mais de ½ até 1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D141">
+        <v>30.48579335356829</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mais de 1 a 2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>16.93855770031887</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Mais de 2 a 3</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D143">
+        <v>4.202195339040325</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Mais de 3 a 5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D144">
+        <v>2.873476424789771</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mais de 5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>1.426771335040587</v>
       </c>
     </row>
   </sheetData>
